--- a/dev_doc/konnekting_sliding_gate_controller.xlsx
+++ b/dev_doc/konnekting_sliding_gate_controller.xlsx
@@ -16,20 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>Open</t>
   </si>
   <si>
-    <t>Closed</t>
-  </si>
-  <si>
-    <t>Moving</t>
-  </si>
-  <si>
-    <t>Barrier</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -100,6 +91,24 @@
   </si>
   <si>
     <t>Open Partly</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Status Open</t>
+  </si>
+  <si>
+    <t>Status Closed</t>
+  </si>
+  <si>
+    <t>Status Moving</t>
+  </si>
+  <si>
+    <t>Status Barrier</t>
+  </si>
+  <si>
+    <t>Status Position</t>
   </si>
 </sst>
 </file>
@@ -441,7 +450,7 @@
   <dimension ref="C2:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,159 +461,175 @@
   <sheetData>
     <row r="2" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="D12" t="s">
-        <v>6</v>
+      <c r="D14" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
         <v>13</v>
-      </c>
-      <c r="D19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
         <v>14</v>
-      </c>
-      <c r="D20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/dev_doc/konnekting_sliding_gate_controller.xlsx
+++ b/dev_doc/konnekting_sliding_gate_controller.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75482AA4-3C52-4349-8826-A6FD37952297}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Interface" sheetId="1" r:id="rId1"/>
+    <sheet name="PCB Layout" sheetId="2" r:id="rId2"/>
+    <sheet name="SW" sheetId="3" r:id="rId3"/>
+    <sheet name="Tasklist" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="74">
   <si>
     <t>Open</t>
   </si>
@@ -109,13 +111,145 @@
   </si>
   <si>
     <t>Status Position</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>Pro Mini</t>
+  </si>
+  <si>
+    <t>VCC</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>RST</t>
+  </si>
+  <si>
+    <t>RX</t>
+  </si>
+  <si>
+    <t>RAW</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>BCU</t>
+  </si>
+  <si>
+    <t>Physikalische Anschlüsse:</t>
+  </si>
+  <si>
+    <t>STER1</t>
+  </si>
+  <si>
+    <t>STER2</t>
+  </si>
+  <si>
+    <t>BARRIERA</t>
+  </si>
+  <si>
+    <t>COM_B</t>
+  </si>
+  <si>
+    <t>COM_S</t>
+  </si>
+  <si>
+    <t>DRIVE_IN</t>
+  </si>
+  <si>
+    <t>DRIVE_OUT</t>
+  </si>
+  <si>
+    <t>5V</t>
+  </si>
+  <si>
+    <t>Endanschlag offen</t>
+  </si>
+  <si>
+    <t>Endanschlag zu</t>
+  </si>
+  <si>
+    <t>KNX+</t>
+  </si>
+  <si>
+    <t>KNX-</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Tx</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>KRANC1 (Offen)</t>
+  </si>
+  <si>
+    <t>KRANC2 (Zu)</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>SIG</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>statische Zustandsinformationen ohne Plausi direkt durchgereicht:
+- Endanschlag AUF / ZU, Lichtschranke
+Befehle:
+1-Tasten Auf/Zu-Steuerung ohne Plausi</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Prüfen ob Gehäuse ins Tor passt</t>
+  </si>
+  <si>
+    <t>HW Löten</t>
+  </si>
+  <si>
+    <t>SW Sprint 1 erstellen</t>
+  </si>
+  <si>
+    <t>SW Sprint 1 montieren und testen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,16 +257,120 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -140,12 +378,155 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -156,14 +537,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -201,9 +585,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -236,9 +620,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -271,9 +672,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -446,25 +864,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:E40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C2:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C7" sqref="C4:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>26</v>
       </c>
@@ -472,63 +894,105 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>28</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>29</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>30</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>0</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>2</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>6</v>
+      </c>
+      <c r="L10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <v>7</v>
+      </c>
+      <c r="L11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>4</v>
       </c>
@@ -536,36 +1000,65 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>22</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <v>8</v>
+      </c>
+      <c r="L13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <v>9</v>
+      </c>
+      <c r="L14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <v>10</v>
+      </c>
+      <c r="L15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>11</v>
+      </c>
+      <c r="L16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>8</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="L18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>10</v>
       </c>
@@ -575,8 +1068,11 @@
       <c r="E19" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="L19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>11</v>
       </c>
@@ -587,22 +1083,32 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>18</v>
       </c>
@@ -638,25 +1144,1796 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="C4:AF73"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="Y26" sqref="Y26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="50" width="2.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>6</v>
+      </c>
+      <c r="J4">
+        <v>7</v>
+      </c>
+      <c r="K4">
+        <v>8</v>
+      </c>
+      <c r="L4">
+        <v>9</v>
+      </c>
+      <c r="M4">
+        <v>10</v>
+      </c>
+      <c r="N4">
+        <v>11</v>
+      </c>
+      <c r="O4">
+        <v>12</v>
+      </c>
+      <c r="P4">
+        <v>13</v>
+      </c>
+      <c r="Q4">
+        <v>14</v>
+      </c>
+      <c r="R4">
+        <v>15</v>
+      </c>
+      <c r="S4">
+        <v>16</v>
+      </c>
+      <c r="T4">
+        <v>17</v>
+      </c>
+      <c r="U4">
+        <v>18</v>
+      </c>
+      <c r="V4">
+        <v>19</v>
+      </c>
+      <c r="W4">
+        <v>20</v>
+      </c>
+      <c r="X4">
+        <v>21</v>
+      </c>
+      <c r="Y4">
+        <v>22</v>
+      </c>
+      <c r="Z4">
+        <v>23</v>
+      </c>
+      <c r="AA4">
+        <v>24</v>
+      </c>
+      <c r="AB4">
+        <v>25</v>
+      </c>
+      <c r="AC4">
+        <v>26</v>
+      </c>
+      <c r="AD4">
+        <v>27</v>
+      </c>
+      <c r="AE4">
+        <v>28</v>
+      </c>
+      <c r="AF4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+    </row>
+    <row r="6" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="28">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="30">
+        <v>9</v>
+      </c>
+      <c r="W6" s="5"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+    </row>
+    <row r="7" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="N7" s="41"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="31">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="32">
+        <v>8</v>
+      </c>
+      <c r="W7" s="5"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+    </row>
+    <row r="8" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="41"/>
+      <c r="P8" s="31">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="32">
+        <v>7</v>
+      </c>
+      <c r="W8" s="5"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+    </row>
+    <row r="9" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" s="31">
+        <v>13</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="32">
+        <v>6</v>
+      </c>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="6"/>
+    </row>
+    <row r="10" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="15">
+        <v>1</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" s="38"/>
+      <c r="N10" s="19"/>
+      <c r="P10" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q10" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="32">
+        <v>5</v>
+      </c>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="6"/>
+    </row>
+    <row r="11" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5">
+        <v>2</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" s="42"/>
+      <c r="N11" s="19"/>
+      <c r="P11" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="32">
+        <v>4</v>
+      </c>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="6"/>
+    </row>
+    <row r="12" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="32">
+        <v>3</v>
+      </c>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="6"/>
+    </row>
+    <row r="13" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5">
+        <v>3</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="M13" s="42"/>
+      <c r="N13" s="5"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="32">
+        <v>2</v>
+      </c>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="6"/>
+    </row>
+    <row r="14" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M14" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="N14" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="O14" s="43"/>
+      <c r="P14" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="6"/>
+    </row>
+    <row r="15" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="11">
+        <v>4</v>
+      </c>
+      <c r="F15" s="26"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="M15" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="N15" s="47"/>
+      <c r="P15" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="6"/>
+    </row>
+    <row r="16" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M16" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="N16" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="O16" s="48"/>
+      <c r="P16" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="6"/>
+    </row>
+    <row r="17" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>13</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="11">
+        <v>5</v>
+      </c>
+      <c r="F17" s="22"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="M17" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="N17" s="47"/>
+      <c r="P17" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="6"/>
+    </row>
+    <row r="18" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>14</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="11">
+        <v>6</v>
+      </c>
+      <c r="F18" s="24"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M18" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="N18" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="6"/>
+    </row>
+    <row r="19" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>15</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="11">
+        <v>7</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="6"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>16</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="11">
+        <v>8</v>
+      </c>
+      <c r="F20" s="42"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="6"/>
+    </row>
+    <row r="21" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>17</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="11">
+        <v>9</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="44"/>
+      <c r="AD21" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="6"/>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>18</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="11">
+        <v>10</v>
+      </c>
+      <c r="F22" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="6"/>
+    </row>
+    <row r="23" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>19</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="11">
+        <v>11</v>
+      </c>
+      <c r="F23" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="6"/>
+    </row>
+    <row r="24" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>20</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="6"/>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>21</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="V25" s="6"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="6"/>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>22</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="5"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="V26" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="6"/>
+    </row>
+    <row r="27" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>23</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="5"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="V27" s="6"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="6"/>
+    </row>
+    <row r="28" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>24</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="5"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="6"/>
+    </row>
+    <row r="29" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>25</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="6"/>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>26</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="2"/>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>27</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="5"/>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>28</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="5"/>
+    </row>
+    <row r="33" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>29</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+    </row>
+    <row r="41" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="J42" s="28">
+        <v>10</v>
+      </c>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="30">
+        <v>9</v>
+      </c>
+      <c r="AA42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB42" s="2"/>
+      <c r="AC42" s="2"/>
+      <c r="AD42" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J43" s="31">
+        <v>11</v>
+      </c>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="32">
+        <v>8</v>
+      </c>
+      <c r="AA43" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB43" s="8"/>
+      <c r="AC43" s="8"/>
+      <c r="AD43" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J44" s="31">
+        <v>12</v>
+      </c>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="J45" s="31">
+        <v>13</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="32">
+        <v>6</v>
+      </c>
+      <c r="AA45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB45" s="2"/>
+      <c r="AC45" s="2"/>
+      <c r="AD45" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J46" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="32">
+        <v>5</v>
+      </c>
+      <c r="AA46" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB46" s="8"/>
+      <c r="AC46" s="8"/>
+      <c r="AD46" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="J47" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="J48" s="31"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="J49" s="31"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="J50" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="J51" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="J52" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="J53" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="8:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J54" s="33"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="34"/>
+      <c r="N54" s="34"/>
+      <c r="O54" s="34"/>
+      <c r="P54" s="35"/>
+    </row>
+    <row r="57" spans="8:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H58" s="1"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2"/>
+      <c r="U58" s="2"/>
+      <c r="V58" s="2"/>
+      <c r="W58" s="2"/>
+      <c r="X58" s="2"/>
+      <c r="Y58" s="3"/>
+    </row>
+    <row r="59" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H59" s="4"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="5"/>
+      <c r="T59" s="5"/>
+      <c r="U59" s="5"/>
+      <c r="V59" s="5"/>
+      <c r="W59" s="5"/>
+      <c r="X59" s="5"/>
+      <c r="Y59" s="6"/>
+    </row>
+    <row r="60" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H60" s="4"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="5"/>
+      <c r="S60" s="5"/>
+      <c r="T60" s="5"/>
+      <c r="U60" s="5"/>
+      <c r="V60" s="5"/>
+      <c r="W60" s="5"/>
+      <c r="X60" s="5"/>
+      <c r="Y60" s="6"/>
+    </row>
+    <row r="61" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H61" s="4"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5"/>
+      <c r="R61" s="5"/>
+      <c r="S61" s="5"/>
+      <c r="T61" s="5"/>
+      <c r="U61" s="5"/>
+      <c r="V61" s="5"/>
+      <c r="W61" s="5"/>
+      <c r="X61" s="5"/>
+      <c r="Y61" s="6"/>
+    </row>
+    <row r="62" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H62" s="4"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="5"/>
+      <c r="S62" s="5"/>
+      <c r="T62" s="5"/>
+      <c r="U62" s="5"/>
+      <c r="V62" s="5"/>
+      <c r="W62" s="5"/>
+      <c r="X62" s="5"/>
+      <c r="Y62" s="6"/>
+    </row>
+    <row r="63" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H63" s="4"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="5"/>
+      <c r="S63" s="5"/>
+      <c r="T63" s="5"/>
+      <c r="U63" s="5"/>
+      <c r="V63" s="5"/>
+      <c r="W63" s="5"/>
+      <c r="X63" s="5"/>
+      <c r="Y63" s="6"/>
+    </row>
+    <row r="64" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H64" s="4"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
+      <c r="P64" s="5"/>
+      <c r="Q64" s="5"/>
+      <c r="R64" s="5"/>
+      <c r="S64" s="5"/>
+      <c r="T64" s="5"/>
+      <c r="U64" s="5"/>
+      <c r="V64" s="5"/>
+      <c r="W64" s="5"/>
+      <c r="X64" s="5"/>
+      <c r="Y64" s="6"/>
+    </row>
+    <row r="65" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H65" s="4"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5"/>
+      <c r="R65" s="5"/>
+      <c r="S65" s="5"/>
+      <c r="T65" s="5"/>
+      <c r="U65" s="5"/>
+      <c r="V65" s="5"/>
+      <c r="W65" s="5"/>
+      <c r="X65" s="5"/>
+      <c r="Y65" s="6"/>
+    </row>
+    <row r="66" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H66" s="4"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5"/>
+      <c r="S66" s="5"/>
+      <c r="T66" s="5"/>
+      <c r="U66" s="5"/>
+      <c r="V66" s="5"/>
+      <c r="W66" s="5"/>
+      <c r="X66" s="5"/>
+      <c r="Y66" s="6"/>
+    </row>
+    <row r="67" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H67" s="4"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="5"/>
+      <c r="R67" s="5"/>
+      <c r="S67" s="5"/>
+      <c r="T67" s="5"/>
+      <c r="U67" s="5"/>
+      <c r="V67" s="5"/>
+      <c r="W67" s="5"/>
+      <c r="X67" s="5"/>
+      <c r="Y67" s="6"/>
+    </row>
+    <row r="68" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H68" s="4"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="5"/>
+      <c r="Q68" s="5"/>
+      <c r="R68" s="5"/>
+      <c r="S68" s="5"/>
+      <c r="T68" s="5"/>
+      <c r="U68" s="5"/>
+      <c r="V68" s="5"/>
+      <c r="W68" s="5"/>
+      <c r="X68" s="5"/>
+      <c r="Y68" s="6"/>
+    </row>
+    <row r="69" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H69" s="4"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="5"/>
+      <c r="R69" s="5"/>
+      <c r="S69" s="5"/>
+      <c r="T69" s="5"/>
+      <c r="U69" s="5"/>
+      <c r="V69" s="5"/>
+      <c r="W69" s="5"/>
+      <c r="X69" s="5"/>
+      <c r="Y69" s="6"/>
+    </row>
+    <row r="70" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H70" s="4"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="5"/>
+      <c r="R70" s="5"/>
+      <c r="S70" s="5"/>
+      <c r="T70" s="5"/>
+      <c r="U70" s="5"/>
+      <c r="V70" s="5"/>
+      <c r="W70" s="5"/>
+      <c r="X70" s="5"/>
+      <c r="Y70" s="6"/>
+    </row>
+    <row r="71" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H71" s="4"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+      <c r="R71" s="5"/>
+      <c r="S71" s="5"/>
+      <c r="T71" s="5"/>
+      <c r="U71" s="5"/>
+      <c r="V71" s="5"/>
+      <c r="W71" s="5"/>
+      <c r="X71" s="5"/>
+      <c r="Y71" s="6"/>
+    </row>
+    <row r="72" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H72" s="4"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="5"/>
+      <c r="Q72" s="5"/>
+      <c r="R72" s="5"/>
+      <c r="S72" s="5"/>
+      <c r="T72" s="5"/>
+      <c r="U72" s="5"/>
+      <c r="V72" s="5"/>
+      <c r="W72" s="5"/>
+      <c r="X72" s="5"/>
+      <c r="Y72" s="6"/>
+    </row>
+    <row r="73" spans="8:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H73" s="7"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="8"/>
+      <c r="O73" s="8"/>
+      <c r="P73" s="8"/>
+      <c r="Q73" s="8"/>
+      <c r="R73" s="8"/>
+      <c r="S73" s="8"/>
+      <c r="T73" s="8"/>
+      <c r="U73" s="8"/>
+      <c r="V73" s="8"/>
+      <c r="W73" s="8"/>
+      <c r="X73" s="8"/>
+      <c r="Y73" s="9"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="C4:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="72.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910E3849-C9AA-41A9-A096-2252D1F7B0D5}">
+  <dimension ref="B4:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/dev_doc/konnekting_sliding_gate_controller.xlsx
+++ b/dev_doc/konnekting_sliding_gate_controller.xlsx
@@ -3,22 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75482AA4-3C52-4349-8826-A6FD37952297}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46992CE5-CFF3-4DF7-872E-C16D975B1282}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Interface" sheetId="1" r:id="rId1"/>
     <sheet name="PCB Layout" sheetId="2" r:id="rId2"/>
     <sheet name="SW" sheetId="3" r:id="rId3"/>
     <sheet name="Tasklist" sheetId="4" r:id="rId4"/>
+    <sheet name="HW" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="89">
   <si>
     <t>Open</t>
   </si>
@@ -243,6 +244,51 @@
   </si>
   <si>
     <t>SW Sprint 1 montieren und testen</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>Platine ausschneiden</t>
+  </si>
+  <si>
+    <t>Verschraubungen anbringen</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>328P</t>
+  </si>
+  <si>
+    <t>Nano</t>
+  </si>
+  <si>
+    <t>32U4</t>
+  </si>
+  <si>
+    <t>Pro Micro</t>
+  </si>
+  <si>
+    <t>Micro</t>
+  </si>
+  <si>
+    <t>Mini</t>
+  </si>
+  <si>
+    <t>IO</t>
+  </si>
+  <si>
+    <t>5V/16MHz</t>
+  </si>
+  <si>
+    <t>3,3V/8MHz</t>
+  </si>
+  <si>
+    <t>USB</t>
+  </si>
+  <si>
+    <t>uC</t>
   </si>
 </sst>
 </file>
@@ -462,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -527,6 +573,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -542,6 +591,377 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3647209" cy="2314575"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="image-main" descr="Arduino Mini 05">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95960441-9588-4A03-BB2C-DDA98238FA2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7753350" y="0"/>
+          <a:ext cx="3647209" cy="2314575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4953000" cy="3143250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="image-main" descr="Arduino Pro Mini">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B1D54F9-2C74-4C2F-99B9-392CF36677A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10610850" y="762000"/>
+          <a:ext cx="4953000" cy="3143250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4762500" cy="3571875"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="image-2" descr="https://store-cdn.arduino.cc/uni/catalog/product/cache/1/image/500x375/f8876a31b63532bbba4e781c30024a0a/a/0/a000053_front_3.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D58ED1CB-A325-4B41-A202-868599E1366E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7096125" y="1857375"/>
+          <a:ext cx="4762500" cy="3571875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5457825" cy="5457825"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 4" descr="Bildergebnis für arduino pro micro">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0763D4D4-F035-4F6C-B17D-C3751A945FC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6858000" y="2476500"/>
+          <a:ext cx="5457825" cy="5457825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5457825" cy="5457825"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 5" descr="Bildergebnis für arduino pro micro">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B295B93-D663-4CFD-BBE4-02E06B7EC169}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6858000" y="2476500"/>
+          <a:ext cx="5457825" cy="5457825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5457825" cy="5457825"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Grafik 6" descr="Bildergebnis für arduino pro micro">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F0A9B19-E14C-4E5B-9F97-B6BFDCABB545}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11439525" y="3067050"/>
+          <a:ext cx="5457825" cy="5457825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4953000" cy="3143250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="image-main" descr="Arduino Nano">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CED32DA1-A271-4435-AE2C-578588669539}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7362825" y="4343400"/>
+          <a:ext cx="4953000" cy="3143250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2902,10 +3322,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910E3849-C9AA-41A9-A096-2252D1F7B0D5}">
-  <dimension ref="B4:B7"/>
+  <dimension ref="B3:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2913,27 +3333,186 @@
     <col min="2" max="2" width="31.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>73</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4E08BB-B986-4D02-B679-A87E368B906A}">
+  <dimension ref="C6:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X18" sqref="X18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/dev_doc/konnekting_sliding_gate_controller.xlsx
+++ b/dev_doc/konnekting_sliding_gate_controller.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46992CE5-CFF3-4DF7-872E-C16D975B1282}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Interface" sheetId="1" r:id="rId1"/>
@@ -14,12 +13,12 @@
     <sheet name="Tasklist" sheetId="4" r:id="rId4"/>
     <sheet name="HW" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="90">
   <si>
     <t>Open</t>
   </si>
@@ -290,11 +289,14 @@
   <si>
     <t>uC</t>
   </si>
+  <si>
+    <t>k</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -324,7 +326,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -412,6 +414,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -576,6 +596,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -608,7 +641,7 @@
         <xdr:cNvPr id="2" name="image-main" descr="Arduino Mini 05">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95960441-9588-4A03-BB2C-DDA98238FA2B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{95960441-9588-4A03-BB2C-DDA98238FA2B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -664,7 +697,7 @@
         <xdr:cNvPr id="3" name="image-main" descr="Arduino Pro Mini">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B1D54F9-2C74-4C2F-99B9-392CF36677A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B1D54F9-2C74-4C2F-99B9-392CF36677A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -720,7 +753,7 @@
         <xdr:cNvPr id="4" name="image-2" descr="https://store-cdn.arduino.cc/uni/catalog/product/cache/1/image/500x375/f8876a31b63532bbba4e781c30024a0a/a/0/a000053_front_3.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D58ED1CB-A325-4B41-A202-868599E1366E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D58ED1CB-A325-4B41-A202-868599E1366E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -776,7 +809,7 @@
         <xdr:cNvPr id="5" name="AutoShape 4" descr="Bildergebnis für arduino pro micro">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0763D4D4-F035-4F6C-B17D-C3751A945FC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0763D4D4-F035-4F6C-B17D-C3751A945FC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -819,7 +852,7 @@
         <xdr:cNvPr id="6" name="AutoShape 5" descr="Bildergebnis für arduino pro micro">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B295B93-D663-4CFD-BBE4-02E06B7EC169}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B295B93-D663-4CFD-BBE4-02E06B7EC169}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -862,7 +895,7 @@
         <xdr:cNvPr id="7" name="Grafik 6" descr="Bildergebnis für arduino pro micro">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F0A9B19-E14C-4E5B-9F97-B6BFDCABB545}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5F0A9B19-E14C-4E5B-9F97-B6BFDCABB545}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -918,7 +951,7 @@
         <xdr:cNvPr id="8" name="image-main" descr="Arduino Nano">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CED32DA1-A271-4435-AE2C-578588669539}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CED32DA1-A271-4435-AE2C-578588669539}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -965,9 +998,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1005,9 +1038,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1040,26 +1073,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1092,26 +1108,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1284,11 +1283,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:L40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C7" sqref="C4:C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1431,7 +1430,7 @@
         <v>8</v>
       </c>
       <c r="L13" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.25">
@@ -1445,7 +1444,7 @@
         <v>9</v>
       </c>
       <c r="L14" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="3:12" x14ac:dyDescent="0.25">
@@ -1564,11 +1563,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="C4:AF73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:AF103"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="Y26" sqref="Y26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1722,7 +1721,9 @@
       <c r="R6" s="29"/>
       <c r="S6" s="29"/>
       <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
+      <c r="U6" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="V6" s="30">
         <v>9</v>
       </c>
@@ -1762,7 +1763,9 @@
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
       <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
+      <c r="U7" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="V7" s="32">
         <v>8</v>
       </c>
@@ -1799,7 +1802,9 @@
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
       <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
+      <c r="U8" s="11" t="s">
+        <v>64</v>
+      </c>
       <c r="V8" s="32">
         <v>7</v>
       </c>
@@ -2011,8 +2016,8 @@
       <c r="S13" s="11"/>
       <c r="T13" s="11"/>
       <c r="U13" s="11"/>
-      <c r="V13" s="32">
-        <v>2</v>
+      <c r="V13" s="32" t="s">
+        <v>89</v>
       </c>
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
@@ -2306,8 +2311,9 @@
       <c r="E20" s="11">
         <v>8</v>
       </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="5"/>
+      <c r="F20" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
@@ -2344,9 +2350,7 @@
       <c r="E21" s="11">
         <v>9</v>
       </c>
-      <c r="F21" s="14" t="s">
-        <v>61</v>
-      </c>
+      <c r="F21" s="42"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -2766,229 +2770,924 @@
       <c r="AE33" s="5"/>
       <c r="AF33" s="5"/>
     </row>
-    <row r="41" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="J42" s="28">
+    <row r="36" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>4</v>
+      </c>
+      <c r="H36">
+        <v>5</v>
+      </c>
+      <c r="I36">
+        <v>6</v>
+      </c>
+      <c r="J36">
+        <v>7</v>
+      </c>
+      <c r="K36">
+        <v>8</v>
+      </c>
+      <c r="L36">
+        <v>9</v>
+      </c>
+      <c r="M36">
         <v>10</v>
       </c>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="29"/>
-      <c r="P42" s="30">
+      <c r="N36">
+        <v>11</v>
+      </c>
+      <c r="O36">
+        <v>12</v>
+      </c>
+      <c r="P36">
+        <v>13</v>
+      </c>
+      <c r="Q36">
+        <v>14</v>
+      </c>
+      <c r="R36">
+        <v>15</v>
+      </c>
+      <c r="S36">
+        <v>16</v>
+      </c>
+      <c r="T36">
+        <v>17</v>
+      </c>
+      <c r="U36">
+        <v>18</v>
+      </c>
+      <c r="V36">
+        <v>19</v>
+      </c>
+      <c r="W36">
+        <v>20</v>
+      </c>
+      <c r="X36">
+        <v>21</v>
+      </c>
+      <c r="Y36">
+        <v>22</v>
+      </c>
+      <c r="Z36">
+        <v>23</v>
+      </c>
+      <c r="AA36">
+        <v>24</v>
+      </c>
+      <c r="AB36">
+        <v>25</v>
+      </c>
+      <c r="AC36">
+        <v>26</v>
+      </c>
+      <c r="AD36">
+        <v>27</v>
+      </c>
+      <c r="AE36">
+        <v>28</v>
+      </c>
+      <c r="AF36">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="57"/>
+      <c r="P37" s="60"/>
+      <c r="Q37" s="61">
+        <v>10</v>
+      </c>
+      <c r="R37" s="29"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="29"/>
+      <c r="U37" s="29"/>
+      <c r="V37" s="29"/>
+      <c r="W37" s="30">
         <v>9</v>
       </c>
-      <c r="AA42" s="1" t="s">
+      <c r="X37" s="4"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="5"/>
+      <c r="AD37" s="5"/>
+      <c r="AE37" s="5"/>
+      <c r="AF37" s="5"/>
+    </row>
+    <row r="38" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="55"/>
+      <c r="N38" s="55"/>
+      <c r="O38" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="62">
+        <v>11</v>
+      </c>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="32">
+        <v>8</v>
+      </c>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="5"/>
+      <c r="AF38" s="5"/>
+    </row>
+    <row r="39" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="56"/>
+      <c r="N39" s="56"/>
+      <c r="O39" s="59"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="31">
+        <v>12</v>
+      </c>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="32">
+        <v>7</v>
+      </c>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="5"/>
+      <c r="AD39" s="5"/>
+      <c r="AE39" s="5"/>
+      <c r="AF39" s="5"/>
+    </row>
+    <row r="40" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="56"/>
+      <c r="N40" s="56"/>
+      <c r="O40" s="59"/>
+      <c r="P40" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q40" s="31">
+        <v>13</v>
+      </c>
+      <c r="R40" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="32">
+        <v>6</v>
+      </c>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="8"/>
+      <c r="AA40" s="8"/>
+      <c r="AB40" s="8"/>
+      <c r="AC40" s="8"/>
+      <c r="AD40" s="8"/>
+      <c r="AE40" s="8"/>
+      <c r="AF40" s="8"/>
+    </row>
+    <row r="41" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="15">
+        <v>1</v>
+      </c>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L41" s="2"/>
+      <c r="M41" s="63"/>
+      <c r="N41" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="O41" s="59"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="R41" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
+      <c r="W41" s="32">
+        <v>5</v>
+      </c>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="5"/>
+      <c r="AD41" s="5"/>
+      <c r="AE41" s="5"/>
+      <c r="AF41" s="6"/>
+    </row>
+    <row r="42" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C42">
+        <v>6</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="5">
+        <v>2</v>
+      </c>
+      <c r="H42" s="53"/>
+      <c r="K42" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L42" s="8"/>
+      <c r="M42" s="64"/>
+      <c r="N42" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AB42" s="2"/>
-      <c r="AC42" s="2"/>
-      <c r="AD42" s="3" t="s">
+      <c r="O42" s="53"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T42" s="11"/>
+      <c r="U42" s="11"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="32">
+        <v>4</v>
+      </c>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="5"/>
+      <c r="AA42" s="5"/>
+      <c r="AB42" s="5"/>
+      <c r="AC42" s="5"/>
+      <c r="AD42" s="5"/>
+      <c r="AE42" s="5"/>
+      <c r="AF42" s="6"/>
+    </row>
+    <row r="43" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>7</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="53"/>
+      <c r="K43" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="43" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J43" s="31">
+      <c r="L43" s="2"/>
+      <c r="M43" s="63"/>
+      <c r="N43" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="31"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="32">
+        <v>3</v>
+      </c>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="5"/>
+      <c r="AC43" s="5"/>
+      <c r="AD43" s="5"/>
+      <c r="AE43" s="5"/>
+      <c r="AF43" s="6"/>
+    </row>
+    <row r="44" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C44">
+        <v>8</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="5">
+        <v>3</v>
+      </c>
+      <c r="H44" s="53"/>
+      <c r="K44" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L44" s="8"/>
+      <c r="M44" s="64"/>
+      <c r="N44" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O44" s="53"/>
+      <c r="Q44" s="31"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
+      <c r="U44" s="11"/>
+      <c r="V44" s="11"/>
+      <c r="W44" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="5"/>
+      <c r="AC44" s="5"/>
+      <c r="AD44" s="5"/>
+      <c r="AE44" s="5"/>
+      <c r="AF44" s="6"/>
+    </row>
+    <row r="45" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>9</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="53"/>
+      <c r="K45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L45" s="2"/>
+      <c r="M45" s="63"/>
+      <c r="N45" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="O45" s="53"/>
+      <c r="Q45" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="11"/>
+      <c r="U45" s="11"/>
+      <c r="V45" s="11"/>
+      <c r="W45" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="5"/>
+      <c r="AA45" s="5"/>
+      <c r="AB45" s="5"/>
+      <c r="AC45" s="5"/>
+      <c r="AD45" s="5"/>
+      <c r="AE45" s="5"/>
+      <c r="AF45" s="6"/>
+    </row>
+    <row r="46" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C46">
+        <v>10</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11">
+        <v>4</v>
+      </c>
+      <c r="H46" s="53"/>
+      <c r="K46" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L46" s="8"/>
+      <c r="M46" s="64"/>
+      <c r="N46" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O46" s="53"/>
+      <c r="Q46" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="R46" s="11"/>
+      <c r="S46" s="11"/>
+      <c r="T46" s="11"/>
+      <c r="U46" s="11"/>
+      <c r="V46" s="11"/>
+      <c r="W46" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="5"/>
+      <c r="Z46" s="5"/>
+      <c r="AA46" s="5"/>
+      <c r="AB46" s="5"/>
+      <c r="AC46" s="5"/>
+      <c r="AD46" s="5"/>
+      <c r="AE46" s="5"/>
+      <c r="AF46" s="6"/>
+    </row>
+    <row r="47" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C47">
         <v>11</v>
       </c>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11"/>
-      <c r="P43" s="32">
+      <c r="D47" s="4"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="53"/>
+      <c r="K47" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L47" s="2"/>
+      <c r="M47" s="63"/>
+      <c r="N47" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="O47" s="53"/>
+      <c r="Q47" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="R47" s="11"/>
+      <c r="S47" s="11"/>
+      <c r="T47" s="11"/>
+      <c r="U47" s="11"/>
+      <c r="V47" s="11"/>
+      <c r="W47" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="5"/>
+      <c r="Z47" s="5"/>
+      <c r="AA47" s="5"/>
+      <c r="AB47" s="5"/>
+      <c r="AC47" s="5"/>
+      <c r="AD47" s="5"/>
+      <c r="AE47" s="5"/>
+      <c r="AF47" s="6"/>
+    </row>
+    <row r="48" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C48">
+        <v>12</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11">
+        <v>5</v>
+      </c>
+      <c r="H48" s="53"/>
+      <c r="K48" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L48" s="8"/>
+      <c r="M48" s="64"/>
+      <c r="N48" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O48" s="53"/>
+      <c r="Q48" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="R48" s="11"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="11"/>
+      <c r="U48" s="11"/>
+      <c r="V48" s="11"/>
+      <c r="W48" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="5"/>
+      <c r="AA48" s="5"/>
+      <c r="AB48" s="5"/>
+      <c r="AC48" s="5"/>
+      <c r="AD48" s="5"/>
+      <c r="AE48" s="5"/>
+      <c r="AF48" s="6"/>
+    </row>
+    <row r="49" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C49">
+        <v>13</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11">
+        <v>6</v>
+      </c>
+      <c r="H49" s="53"/>
+      <c r="K49" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L49" s="2"/>
+      <c r="M49" s="63"/>
+      <c r="N49" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="O49" s="53"/>
+      <c r="Q49" s="33"/>
+      <c r="R49" s="34"/>
+      <c r="S49" s="34"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="34"/>
+      <c r="V49" s="34"/>
+      <c r="W49" s="35"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="5"/>
+      <c r="AA49" s="5"/>
+      <c r="AB49" s="5"/>
+      <c r="AC49" s="1"/>
+      <c r="AD49" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE49" s="5"/>
+      <c r="AF49" s="6"/>
+    </row>
+    <row r="50" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C50">
+        <v>14</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11">
+        <v>7</v>
+      </c>
+      <c r="H50" s="53"/>
+      <c r="K50" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O50" s="53"/>
+      <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
+      <c r="Y50" s="5"/>
+      <c r="Z50" s="5"/>
+      <c r="AA50" s="5"/>
+      <c r="AB50" s="5"/>
+      <c r="AC50" s="4"/>
+      <c r="AD50" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE50" s="5"/>
+      <c r="AF50" s="6"/>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>15</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11">
         <v>8</v>
       </c>
-      <c r="AA43" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB43" s="8"/>
-      <c r="AC43" s="8"/>
-      <c r="AD43" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J44" s="31">
-        <v>12</v>
-      </c>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="32">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="J45" s="31">
-        <v>13</v>
-      </c>
-      <c r="K45" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="11"/>
-      <c r="P45" s="32">
-        <v>6</v>
-      </c>
-      <c r="AA45" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB45" s="2"/>
-      <c r="AC45" s="2"/>
-      <c r="AD45" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J46" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="32">
-        <v>5</v>
-      </c>
-      <c r="AA46" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB46" s="8"/>
-      <c r="AC46" s="8"/>
-      <c r="AD46" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="J47" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="M47" s="11"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="J48" s="31"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="11"/>
-      <c r="P48" s="32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="J49" s="31"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11"/>
-      <c r="N49" s="11"/>
-      <c r="O49" s="11"/>
-      <c r="P49" s="32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="J50" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="K50" s="11"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="11"/>
-      <c r="N50" s="11"/>
-      <c r="O50" s="11"/>
-      <c r="P50" s="32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="51" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="J51" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="K51" s="11"/>
-      <c r="L51" s="11"/>
+      <c r="H51" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="M51" s="11"/>
       <c r="N51" s="11"/>
       <c r="O51" s="11"/>
-      <c r="P51" s="32" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="52" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="J52" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="K52" s="11"/>
-      <c r="L52" s="11"/>
-      <c r="M52" s="11"/>
-      <c r="N52" s="11"/>
-      <c r="O52" s="11"/>
-      <c r="P52" s="32" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="53" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="J53" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="K53" s="11"/>
-      <c r="L53" s="11"/>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="11"/>
-      <c r="P53" s="32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="54" spans="8:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J54" s="33"/>
-      <c r="K54" s="34"/>
-      <c r="L54" s="34"/>
-      <c r="M54" s="34"/>
-      <c r="N54" s="34"/>
-      <c r="O54" s="34"/>
-      <c r="P54" s="35"/>
-    </row>
-    <row r="57" spans="8:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H58" s="1"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="2"/>
-      <c r="R58" s="2"/>
-      <c r="S58" s="2"/>
-      <c r="T58" s="2"/>
-      <c r="U58" s="2"/>
-      <c r="V58" s="2"/>
-      <c r="W58" s="2"/>
-      <c r="X58" s="2"/>
-      <c r="Y58" s="3"/>
-    </row>
-    <row r="59" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H59" s="4"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+      <c r="X51" s="5"/>
+      <c r="Y51" s="5"/>
+      <c r="Z51" s="5"/>
+      <c r="AA51" s="5"/>
+      <c r="AB51" s="5"/>
+      <c r="AC51" s="4"/>
+      <c r="AD51" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE51" s="5"/>
+      <c r="AF51" s="6"/>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>16</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11">
+        <v>9</v>
+      </c>
+      <c r="H52" s="42"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="5"/>
+      <c r="X52" s="5"/>
+      <c r="Y52" s="5"/>
+      <c r="Z52" s="5"/>
+      <c r="AA52" s="5"/>
+      <c r="AB52" s="5"/>
+      <c r="AC52" s="4"/>
+      <c r="AD52" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE52" s="5"/>
+      <c r="AF52" s="6"/>
+    </row>
+    <row r="53" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C53">
+        <v>17</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11">
+        <v>10</v>
+      </c>
+      <c r="H53" s="11"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="5"/>
+      <c r="Z53" s="5"/>
+      <c r="AA53" s="5"/>
+      <c r="AB53" s="5"/>
+      <c r="AC53" s="44"/>
+      <c r="AD53" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE53" s="5"/>
+      <c r="AF53" s="6"/>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>18</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11">
+        <v>11</v>
+      </c>
+      <c r="H54" s="11"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5"/>
+      <c r="Z54" s="5"/>
+      <c r="AA54" s="5"/>
+      <c r="AB54" s="5"/>
+      <c r="AC54" s="5"/>
+      <c r="AD54" s="5"/>
+      <c r="AE54" s="5"/>
+      <c r="AF54" s="6"/>
+    </row>
+    <row r="55" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C55">
+        <v>19</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="53"/>
+      <c r="U55" s="5"/>
+      <c r="V55" s="5"/>
+      <c r="W55" s="5"/>
+      <c r="X55" s="5"/>
+      <c r="Y55" s="5"/>
+      <c r="Z55" s="5"/>
+      <c r="AA55" s="5"/>
+      <c r="AB55" s="5"/>
+      <c r="AC55" s="5"/>
+      <c r="AD55" s="5"/>
+      <c r="AE55" s="5"/>
+      <c r="AF55" s="6"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>20</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="5"/>
+      <c r="X56" s="5"/>
+      <c r="Y56" s="5"/>
+      <c r="Z56" s="5"/>
+      <c r="AA56" s="5"/>
+      <c r="AB56" s="5"/>
+      <c r="AC56" s="5"/>
+      <c r="AD56" s="5"/>
+      <c r="AE56" s="5"/>
+      <c r="AF56" s="6"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>21</v>
+      </c>
+      <c r="D57" s="4"/>
+      <c r="E57" s="5"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="V57" s="6"/>
+      <c r="W57" s="5"/>
+      <c r="X57" s="5"/>
+      <c r="Y57" s="5"/>
+      <c r="Z57" s="5"/>
+      <c r="AA57" s="5"/>
+      <c r="AB57" s="5"/>
+      <c r="AC57" s="5"/>
+      <c r="AD57" s="5"/>
+      <c r="AE57" s="5"/>
+      <c r="AF57" s="6"/>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>22</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="5"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="5"/>
+      <c r="T58" s="5"/>
+      <c r="U58" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="V58" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="W58" s="5"/>
+      <c r="X58" s="5"/>
+      <c r="Y58" s="5"/>
+      <c r="Z58" s="5"/>
+      <c r="AA58" s="5"/>
+      <c r="AB58" s="5"/>
+      <c r="AC58" s="5"/>
+      <c r="AD58" s="5"/>
+      <c r="AE58" s="5"/>
+      <c r="AF58" s="6"/>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>23</v>
+      </c>
+      <c r="D59" s="4"/>
+      <c r="E59" s="5"/>
+      <c r="J59" s="4"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
@@ -2999,34 +3698,60 @@
       <c r="R59" s="5"/>
       <c r="S59" s="5"/>
       <c r="T59" s="5"/>
-      <c r="U59" s="5"/>
-      <c r="V59" s="5"/>
+      <c r="U59" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="V59" s="6"/>
       <c r="W59" s="5"/>
       <c r="X59" s="5"/>
-      <c r="Y59" s="6"/>
-    </row>
-    <row r="60" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H60" s="4"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
-      <c r="N60" s="5"/>
-      <c r="O60" s="5"/>
-      <c r="P60" s="5"/>
-      <c r="Q60" s="5"/>
-      <c r="R60" s="5"/>
-      <c r="S60" s="5"/>
-      <c r="T60" s="5"/>
-      <c r="U60" s="5"/>
-      <c r="V60" s="5"/>
+      <c r="Y59" s="5"/>
+      <c r="Z59" s="5"/>
+      <c r="AA59" s="5"/>
+      <c r="AB59" s="5"/>
+      <c r="AC59" s="5"/>
+      <c r="AD59" s="5"/>
+      <c r="AE59" s="5"/>
+      <c r="AF59" s="6"/>
+    </row>
+    <row r="60" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C60">
+        <v>24</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="5"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="8"/>
+      <c r="R60" s="8"/>
+      <c r="S60" s="8"/>
+      <c r="T60" s="8"/>
+      <c r="U60" s="8"/>
+      <c r="V60" s="9"/>
       <c r="W60" s="5"/>
       <c r="X60" s="5"/>
-      <c r="Y60" s="6"/>
-    </row>
-    <row r="61" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H61" s="4"/>
+      <c r="Y60" s="5"/>
+      <c r="Z60" s="5"/>
+      <c r="AA60" s="5"/>
+      <c r="AB60" s="5"/>
+      <c r="AC60" s="5"/>
+      <c r="AD60" s="5"/>
+      <c r="AE60" s="5"/>
+      <c r="AF60" s="6"/>
+    </row>
+    <row r="61" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C61">
+        <v>25</v>
+      </c>
+      <c r="D61" s="4"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
@@ -3043,13 +3768,27 @@
       <c r="V61" s="5"/>
       <c r="W61" s="5"/>
       <c r="X61" s="5"/>
-      <c r="Y61" s="6"/>
-    </row>
-    <row r="62" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H62" s="4"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
+      <c r="Y61" s="5"/>
+      <c r="Z61" s="5"/>
+      <c r="AA61" s="5"/>
+      <c r="AB61" s="5"/>
+      <c r="AC61" s="5"/>
+      <c r="AD61" s="5"/>
+      <c r="AE61" s="5"/>
+      <c r="AF61" s="6"/>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>26</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="3"/>
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
@@ -3062,14 +3801,28 @@
       <c r="U62" s="5"/>
       <c r="V62" s="5"/>
       <c r="W62" s="5"/>
-      <c r="X62" s="5"/>
-      <c r="Y62" s="6"/>
-    </row>
-    <row r="63" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H63" s="4"/>
+      <c r="X62" s="1"/>
+      <c r="Y62" s="2"/>
+      <c r="Z62" s="2"/>
+      <c r="AA62" s="2"/>
+      <c r="AB62" s="2"/>
+      <c r="AC62" s="2"/>
+      <c r="AD62" s="2"/>
+      <c r="AE62" s="2"/>
+      <c r="AF62" s="2"/>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>27</v>
+      </c>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
+      <c r="K63" s="6"/>
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
@@ -3082,14 +3835,28 @@
       <c r="U63" s="5"/>
       <c r="V63" s="5"/>
       <c r="W63" s="5"/>
-      <c r="X63" s="5"/>
-      <c r="Y63" s="6"/>
-    </row>
-    <row r="64" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H64" s="4"/>
+      <c r="X63" s="4"/>
+      <c r="Y63" s="5"/>
+      <c r="Z63" s="5"/>
+      <c r="AA63" s="5"/>
+      <c r="AB63" s="5"/>
+      <c r="AC63" s="5"/>
+      <c r="AD63" s="5"/>
+      <c r="AE63" s="5"/>
+      <c r="AF63" s="5"/>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>28</v>
+      </c>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
+      <c r="K64" s="6"/>
       <c r="L64" s="5"/>
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
@@ -3102,190 +3869,570 @@
       <c r="U64" s="5"/>
       <c r="V64" s="5"/>
       <c r="W64" s="5"/>
-      <c r="X64" s="5"/>
-      <c r="Y64" s="6"/>
-    </row>
-    <row r="65" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H65" s="4"/>
+      <c r="X64" s="4"/>
+      <c r="Y64" s="5"/>
+      <c r="Z64" s="5"/>
+      <c r="AA64" s="5"/>
+      <c r="AB64" s="5"/>
+      <c r="AC64" s="5"/>
+      <c r="AD64" s="5"/>
+      <c r="AE64" s="5"/>
+      <c r="AF64" s="5"/>
+    </row>
+    <row r="65" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C65">
+        <v>29</v>
+      </c>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
-      <c r="L65" s="5"/>
-      <c r="M65" s="5"/>
-      <c r="N65" s="5" t="s">
+      <c r="K65" s="6"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="8"/>
+      <c r="R65" s="8"/>
+      <c r="S65" s="8"/>
+      <c r="T65" s="8"/>
+      <c r="U65" s="8"/>
+      <c r="V65" s="8"/>
+      <c r="W65" s="8"/>
+      <c r="X65" s="4"/>
+      <c r="Y65" s="5"/>
+      <c r="Z65" s="5"/>
+      <c r="AA65" s="5"/>
+      <c r="AB65" s="5"/>
+      <c r="AC65" s="5"/>
+      <c r="AD65" s="5"/>
+      <c r="AE65" s="5"/>
+      <c r="AF65" s="5"/>
+    </row>
+    <row r="71" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="J72" s="28">
+        <v>10</v>
+      </c>
+      <c r="K72" s="29"/>
+      <c r="L72" s="29"/>
+      <c r="M72" s="29"/>
+      <c r="N72" s="29"/>
+      <c r="O72" s="29"/>
+      <c r="P72" s="30">
+        <v>9</v>
+      </c>
+      <c r="AA72" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB72" s="2"/>
+      <c r="AC72" s="2"/>
+      <c r="AD72" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J73" s="31">
+        <v>11</v>
+      </c>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11"/>
+      <c r="P73" s="32">
+        <v>8</v>
+      </c>
+      <c r="AA73" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB73" s="8"/>
+      <c r="AC73" s="8"/>
+      <c r="AD73" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J74" s="31">
+        <v>12</v>
+      </c>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="11"/>
+      <c r="O74" s="11"/>
+      <c r="P74" s="32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="J75" s="31">
+        <v>13</v>
+      </c>
+      <c r="K75" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="11"/>
+      <c r="O75" s="11"/>
+      <c r="P75" s="32">
+        <v>6</v>
+      </c>
+      <c r="AA75" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB75" s="2"/>
+      <c r="AC75" s="2"/>
+      <c r="AD75" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J76" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
+      <c r="O76" s="11"/>
+      <c r="P76" s="32">
+        <v>5</v>
+      </c>
+      <c r="AA76" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB76" s="8"/>
+      <c r="AC76" s="8"/>
+      <c r="AD76" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="77" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="J77" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M77" s="11"/>
+      <c r="N77" s="11"/>
+      <c r="O77" s="11"/>
+      <c r="P77" s="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="J78" s="31"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="11"/>
+      <c r="O78" s="11"/>
+      <c r="P78" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="J79" s="31"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="11"/>
+      <c r="N79" s="11"/>
+      <c r="O79" s="11"/>
+      <c r="P79" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="J80" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="11"/>
+      <c r="N80" s="11"/>
+      <c r="O80" s="11"/>
+      <c r="P80" s="32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="81" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="J81" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="K81" s="11"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="11"/>
+      <c r="N81" s="11"/>
+      <c r="O81" s="11"/>
+      <c r="P81" s="32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="82" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="J82" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="K82" s="11"/>
+      <c r="L82" s="11"/>
+      <c r="M82" s="11"/>
+      <c r="N82" s="11"/>
+      <c r="O82" s="11"/>
+      <c r="P82" s="32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="J83" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="K83" s="11"/>
+      <c r="L83" s="11"/>
+      <c r="M83" s="11"/>
+      <c r="N83" s="11"/>
+      <c r="O83" s="11"/>
+      <c r="P83" s="32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="84" spans="8:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J84" s="33"/>
+      <c r="K84" s="34"/>
+      <c r="L84" s="34"/>
+      <c r="M84" s="34"/>
+      <c r="N84" s="34"/>
+      <c r="O84" s="34"/>
+      <c r="P84" s="35"/>
+    </row>
+    <row r="87" spans="8:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="88" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H88" s="1"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+      <c r="P88" s="2"/>
+      <c r="Q88" s="2"/>
+      <c r="R88" s="2"/>
+      <c r="S88" s="2"/>
+      <c r="T88" s="2"/>
+      <c r="U88" s="2"/>
+      <c r="V88" s="2"/>
+      <c r="W88" s="2"/>
+      <c r="X88" s="2"/>
+      <c r="Y88" s="3"/>
+    </row>
+    <row r="89" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H89" s="4"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="5"/>
+      <c r="M89" s="5"/>
+      <c r="N89" s="5"/>
+      <c r="O89" s="5"/>
+      <c r="P89" s="5"/>
+      <c r="Q89" s="5"/>
+      <c r="R89" s="5"/>
+      <c r="S89" s="5"/>
+      <c r="T89" s="5"/>
+      <c r="U89" s="5"/>
+      <c r="V89" s="5"/>
+      <c r="W89" s="5"/>
+      <c r="X89" s="5"/>
+      <c r="Y89" s="6"/>
+    </row>
+    <row r="90" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H90" s="4"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5"/>
+      <c r="M90" s="5"/>
+      <c r="N90" s="5"/>
+      <c r="O90" s="5"/>
+      <c r="P90" s="5"/>
+      <c r="Q90" s="5"/>
+      <c r="R90" s="5"/>
+      <c r="S90" s="5"/>
+      <c r="T90" s="5"/>
+      <c r="U90" s="5"/>
+      <c r="V90" s="5"/>
+      <c r="W90" s="5"/>
+      <c r="X90" s="5"/>
+      <c r="Y90" s="6"/>
+    </row>
+    <row r="91" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H91" s="4"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5"/>
+      <c r="L91" s="5"/>
+      <c r="M91" s="5"/>
+      <c r="N91" s="5"/>
+      <c r="O91" s="5"/>
+      <c r="P91" s="5"/>
+      <c r="Q91" s="5"/>
+      <c r="R91" s="5"/>
+      <c r="S91" s="5"/>
+      <c r="T91" s="5"/>
+      <c r="U91" s="5"/>
+      <c r="V91" s="5"/>
+      <c r="W91" s="5"/>
+      <c r="X91" s="5"/>
+      <c r="Y91" s="6"/>
+    </row>
+    <row r="92" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H92" s="4"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="5"/>
+      <c r="M92" s="5"/>
+      <c r="N92" s="5"/>
+      <c r="O92" s="5"/>
+      <c r="P92" s="5"/>
+      <c r="Q92" s="5"/>
+      <c r="R92" s="5"/>
+      <c r="S92" s="5"/>
+      <c r="T92" s="5"/>
+      <c r="U92" s="5"/>
+      <c r="V92" s="5"/>
+      <c r="W92" s="5"/>
+      <c r="X92" s="5"/>
+      <c r="Y92" s="6"/>
+    </row>
+    <row r="93" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H93" s="4"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
+      <c r="L93" s="5"/>
+      <c r="M93" s="5"/>
+      <c r="N93" s="5"/>
+      <c r="O93" s="5"/>
+      <c r="P93" s="5"/>
+      <c r="Q93" s="5"/>
+      <c r="R93" s="5"/>
+      <c r="S93" s="5"/>
+      <c r="T93" s="5"/>
+      <c r="U93" s="5"/>
+      <c r="V93" s="5"/>
+      <c r="W93" s="5"/>
+      <c r="X93" s="5"/>
+      <c r="Y93" s="6"/>
+    </row>
+    <row r="94" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H94" s="4"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5"/>
+      <c r="M94" s="5"/>
+      <c r="N94" s="5"/>
+      <c r="O94" s="5"/>
+      <c r="P94" s="5"/>
+      <c r="Q94" s="5"/>
+      <c r="R94" s="5"/>
+      <c r="S94" s="5"/>
+      <c r="T94" s="5"/>
+      <c r="U94" s="5"/>
+      <c r="V94" s="5"/>
+      <c r="W94" s="5"/>
+      <c r="X94" s="5"/>
+      <c r="Y94" s="6"/>
+    </row>
+    <row r="95" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H95" s="4"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="5"/>
+      <c r="M95" s="5"/>
+      <c r="N95" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="O65" s="5"/>
-      <c r="P65" s="5"/>
-      <c r="Q65" s="5"/>
-      <c r="R65" s="5"/>
-      <c r="S65" s="5"/>
-      <c r="T65" s="5"/>
-      <c r="U65" s="5"/>
-      <c r="V65" s="5"/>
-      <c r="W65" s="5"/>
-      <c r="X65" s="5"/>
-      <c r="Y65" s="6"/>
-    </row>
-    <row r="66" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H66" s="4"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
-      <c r="N66" s="5"/>
-      <c r="O66" s="5"/>
-      <c r="P66" s="5"/>
-      <c r="Q66" s="5"/>
-      <c r="R66" s="5"/>
-      <c r="S66" s="5"/>
-      <c r="T66" s="5"/>
-      <c r="U66" s="5"/>
-      <c r="V66" s="5"/>
-      <c r="W66" s="5"/>
-      <c r="X66" s="5"/>
-      <c r="Y66" s="6"/>
-    </row>
-    <row r="67" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H67" s="4"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
-      <c r="N67" s="5"/>
-      <c r="O67" s="5"/>
-      <c r="P67" s="5"/>
-      <c r="Q67" s="5"/>
-      <c r="R67" s="5"/>
-      <c r="S67" s="5"/>
-      <c r="T67" s="5"/>
-      <c r="U67" s="5"/>
-      <c r="V67" s="5"/>
-      <c r="W67" s="5"/>
-      <c r="X67" s="5"/>
-      <c r="Y67" s="6"/>
-    </row>
-    <row r="68" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H68" s="4"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
-      <c r="L68" s="5"/>
-      <c r="M68" s="5"/>
-      <c r="N68" s="5"/>
-      <c r="O68" s="5"/>
-      <c r="P68" s="5"/>
-      <c r="Q68" s="5"/>
-      <c r="R68" s="5"/>
-      <c r="S68" s="5"/>
-      <c r="T68" s="5"/>
-      <c r="U68" s="5"/>
-      <c r="V68" s="5"/>
-      <c r="W68" s="5"/>
-      <c r="X68" s="5"/>
-      <c r="Y68" s="6"/>
-    </row>
-    <row r="69" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H69" s="4"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
-      <c r="L69" s="5"/>
-      <c r="M69" s="5"/>
-      <c r="N69" s="5"/>
-      <c r="O69" s="5"/>
-      <c r="P69" s="5"/>
-      <c r="Q69" s="5"/>
-      <c r="R69" s="5"/>
-      <c r="S69" s="5"/>
-      <c r="T69" s="5"/>
-      <c r="U69" s="5"/>
-      <c r="V69" s="5"/>
-      <c r="W69" s="5"/>
-      <c r="X69" s="5"/>
-      <c r="Y69" s="6"/>
-    </row>
-    <row r="70" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H70" s="4"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
-      <c r="L70" s="5"/>
-      <c r="M70" s="5"/>
-      <c r="N70" s="5"/>
-      <c r="O70" s="5"/>
-      <c r="P70" s="5"/>
-      <c r="Q70" s="5"/>
-      <c r="R70" s="5"/>
-      <c r="S70" s="5"/>
-      <c r="T70" s="5"/>
-      <c r="U70" s="5"/>
-      <c r="V70" s="5"/>
-      <c r="W70" s="5"/>
-      <c r="X70" s="5"/>
-      <c r="Y70" s="6"/>
-    </row>
-    <row r="71" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H71" s="4"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
-      <c r="L71" s="5"/>
-      <c r="M71" s="5"/>
-      <c r="N71" s="5"/>
-      <c r="O71" s="5"/>
-      <c r="P71" s="5"/>
-      <c r="Q71" s="5"/>
-      <c r="R71" s="5"/>
-      <c r="S71" s="5"/>
-      <c r="T71" s="5"/>
-      <c r="U71" s="5"/>
-      <c r="V71" s="5"/>
-      <c r="W71" s="5"/>
-      <c r="X71" s="5"/>
-      <c r="Y71" s="6"/>
-    </row>
-    <row r="72" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H72" s="4"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
-      <c r="L72" s="5"/>
-      <c r="M72" s="5"/>
-      <c r="N72" s="5"/>
-      <c r="O72" s="5"/>
-      <c r="P72" s="5"/>
-      <c r="Q72" s="5"/>
-      <c r="R72" s="5"/>
-      <c r="S72" s="5"/>
-      <c r="T72" s="5"/>
-      <c r="U72" s="5"/>
-      <c r="V72" s="5"/>
-      <c r="W72" s="5"/>
-      <c r="X72" s="5"/>
-      <c r="Y72" s="6"/>
-    </row>
-    <row r="73" spans="8:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H73" s="7"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="8"/>
-      <c r="L73" s="8"/>
-      <c r="M73" s="8"/>
-      <c r="N73" s="8"/>
-      <c r="O73" s="8"/>
-      <c r="P73" s="8"/>
-      <c r="Q73" s="8"/>
-      <c r="R73" s="8"/>
-      <c r="S73" s="8"/>
-      <c r="T73" s="8"/>
-      <c r="U73" s="8"/>
-      <c r="V73" s="8"/>
-      <c r="W73" s="8"/>
-      <c r="X73" s="8"/>
-      <c r="Y73" s="9"/>
+      <c r="O95" s="5"/>
+      <c r="P95" s="5"/>
+      <c r="Q95" s="5"/>
+      <c r="R95" s="5"/>
+      <c r="S95" s="5"/>
+      <c r="T95" s="5"/>
+      <c r="U95" s="5"/>
+      <c r="V95" s="5"/>
+      <c r="W95" s="5"/>
+      <c r="X95" s="5"/>
+      <c r="Y95" s="6"/>
+    </row>
+    <row r="96" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H96" s="4"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="5"/>
+      <c r="M96" s="5"/>
+      <c r="N96" s="5"/>
+      <c r="O96" s="5"/>
+      <c r="P96" s="5"/>
+      <c r="Q96" s="5"/>
+      <c r="R96" s="5"/>
+      <c r="S96" s="5"/>
+      <c r="T96" s="5"/>
+      <c r="U96" s="5"/>
+      <c r="V96" s="5"/>
+      <c r="W96" s="5"/>
+      <c r="X96" s="5"/>
+      <c r="Y96" s="6"/>
+    </row>
+    <row r="97" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H97" s="4"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
+      <c r="L97" s="5"/>
+      <c r="M97" s="5"/>
+      <c r="N97" s="5"/>
+      <c r="O97" s="5"/>
+      <c r="P97" s="5"/>
+      <c r="Q97" s="5"/>
+      <c r="R97" s="5"/>
+      <c r="S97" s="5"/>
+      <c r="T97" s="5"/>
+      <c r="U97" s="5"/>
+      <c r="V97" s="5"/>
+      <c r="W97" s="5"/>
+      <c r="X97" s="5"/>
+      <c r="Y97" s="6"/>
+    </row>
+    <row r="98" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H98" s="4"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="5"/>
+      <c r="L98" s="5"/>
+      <c r="M98" s="5"/>
+      <c r="N98" s="5"/>
+      <c r="O98" s="5"/>
+      <c r="P98" s="5"/>
+      <c r="Q98" s="5"/>
+      <c r="R98" s="5"/>
+      <c r="S98" s="5"/>
+      <c r="T98" s="5"/>
+      <c r="U98" s="5"/>
+      <c r="V98" s="5"/>
+      <c r="W98" s="5"/>
+      <c r="X98" s="5"/>
+      <c r="Y98" s="6"/>
+    </row>
+    <row r="99" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H99" s="4"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="5"/>
+      <c r="M99" s="5"/>
+      <c r="N99" s="5"/>
+      <c r="O99" s="5"/>
+      <c r="P99" s="5"/>
+      <c r="Q99" s="5"/>
+      <c r="R99" s="5"/>
+      <c r="S99" s="5"/>
+      <c r="T99" s="5"/>
+      <c r="U99" s="5"/>
+      <c r="V99" s="5"/>
+      <c r="W99" s="5"/>
+      <c r="X99" s="5"/>
+      <c r="Y99" s="6"/>
+    </row>
+    <row r="100" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H100" s="4"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
+      <c r="L100" s="5"/>
+      <c r="M100" s="5"/>
+      <c r="N100" s="5"/>
+      <c r="O100" s="5"/>
+      <c r="P100" s="5"/>
+      <c r="Q100" s="5"/>
+      <c r="R100" s="5"/>
+      <c r="S100" s="5"/>
+      <c r="T100" s="5"/>
+      <c r="U100" s="5"/>
+      <c r="V100" s="5"/>
+      <c r="W100" s="5"/>
+      <c r="X100" s="5"/>
+      <c r="Y100" s="6"/>
+    </row>
+    <row r="101" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H101" s="4"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="5"/>
+      <c r="L101" s="5"/>
+      <c r="M101" s="5"/>
+      <c r="N101" s="5"/>
+      <c r="O101" s="5"/>
+      <c r="P101" s="5"/>
+      <c r="Q101" s="5"/>
+      <c r="R101" s="5"/>
+      <c r="S101" s="5"/>
+      <c r="T101" s="5"/>
+      <c r="U101" s="5"/>
+      <c r="V101" s="5"/>
+      <c r="W101" s="5"/>
+      <c r="X101" s="5"/>
+      <c r="Y101" s="6"/>
+    </row>
+    <row r="102" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H102" s="4"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
+      <c r="L102" s="5"/>
+      <c r="M102" s="5"/>
+      <c r="N102" s="5"/>
+      <c r="O102" s="5"/>
+      <c r="P102" s="5"/>
+      <c r="Q102" s="5"/>
+      <c r="R102" s="5"/>
+      <c r="S102" s="5"/>
+      <c r="T102" s="5"/>
+      <c r="U102" s="5"/>
+      <c r="V102" s="5"/>
+      <c r="W102" s="5"/>
+      <c r="X102" s="5"/>
+      <c r="Y102" s="6"/>
+    </row>
+    <row r="103" spans="8:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H103" s="7"/>
+      <c r="I103" s="8"/>
+      <c r="J103" s="8"/>
+      <c r="K103" s="8"/>
+      <c r="L103" s="8"/>
+      <c r="M103" s="8"/>
+      <c r="N103" s="8"/>
+      <c r="O103" s="8"/>
+      <c r="P103" s="8"/>
+      <c r="Q103" s="8"/>
+      <c r="R103" s="8"/>
+      <c r="S103" s="8"/>
+      <c r="T103" s="8"/>
+      <c r="U103" s="8"/>
+      <c r="V103" s="8"/>
+      <c r="W103" s="8"/>
+      <c r="X103" s="8"/>
+      <c r="Y103" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3294,7 +4441,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3321,7 +4468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910E3849-C9AA-41A9-A096-2252D1F7B0D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3378,10 +4525,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4E08BB-B986-4D02-B679-A87E368B906A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
